--- a/KiCad/c4_v2_BoM_seeed.xlsx
+++ b/KiCad/c4_v2_BoM_seeed.xlsx
@@ -5,14 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="290" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="276" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Seeed BOM Format" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="BoM_PCB" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="BoM_SCH" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Seeed BOM Format'!$A$10:$M$15</definedName>
@@ -544,7 +547,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="703">
   <si>
     <t>Electronic Engineering BOM List</t>
   </si>
@@ -605,7 +608,7 @@
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
-      <t>：26</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -614,7 +617,7 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>/01/2015</t>
+      <t>29/01/2015</t>
     </r>
   </si>
   <si>
@@ -1261,7 +1264,7 @@
     <t>SW1</t>
   </si>
   <si>
-    <t>SWITCH TACTILE SPST-NO 0.05A 12V</t>
+    <t>SWITCH TACTILE SPST-NO 0.05A 24V</t>
   </si>
   <si>
     <t>SW_RST</t>
@@ -1273,13 +1276,13 @@
     <t>TE Connectivity</t>
   </si>
   <si>
-    <t>FSM4JSMA</t>
-  </si>
-  <si>
-    <t>450-1129-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/FSM4JSMA/450-1129-ND/525821</t>
+    <t>FSM6JSMA</t>
+  </si>
+  <si>
+    <t>450-1133-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/FSM6JSMA/450-1133-ND/525822</t>
   </si>
   <si>
     <t>17</t>
@@ -1517,6 +1520,1551 @@
       </rPr>
       <t>Part_Description, Manufacturers Name, Manufacturers Part No, Distributors Name, Distributors Part No, Unit Cost, Price break to use, Notes/Remark</t>
     </r>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Supplier and ref</t>
+  </si>
+  <si>
+    <t>CR2032_SMD2</t>
+  </si>
+  <si>
+    <t>C1,C3,C6,C8,C9,C11,C197,C198,C199</t>
+  </si>
+  <si>
+    <t>c_0805</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>22p</t>
+  </si>
+  <si>
+    <t>c_2917</t>
+  </si>
+  <si>
+    <t>47u</t>
+  </si>
+  <si>
+    <t>C193,C192,C191,
+C190,C189,C188,C187,C186,C185,C184,C183,C182,C181,
+C180,C179,C178,C177,C176,C175,C174,C173,C172,C171,
+C170,C169,C168,C167,C166,C165,C164,C163,C162,C161,
+C160,C159,C158,C157,C156,C155,C154,C153,C152,C151,
+C150,C149,C148,C147,C146,C145,C144,C143,C142,C141,
+C140,C139,C138,C137,C136,C135,C134,C133,C132,C131,
+C130,C129,C128,C127,C126,C125,C124,C123,C122,C121,
+C120,C119,C118,C117,C116,C115,C114,C113,C112,C111,
+C110,C109,C108,C107,C106,C105,C104,C103,C102,C101,
+C100,C99,C98,C97,C96,C95,C94,C93,C92,C91,
+C90,C89,C88,C87,C86,C85,C84,C83,C82,C81,
+C80,C79,C78,C77,C76,C75,C74,C73,C72,C71,
+C70,C69,C68,C67,C66,C65,C64,C63,C62,C61,
+C60,C59,C58,C57,C56,C55,C54,C53,C52,C51,
+C50,C49,C48,C47,C46,C45,C44,C43,C42,C41,
+C40,C39,C38,C37,C36,C35,C34,C33,C32,C31,
+C30,C29,C28,C27,C26,C25,C24,C23,C22,C21,
+C20,C19,C18,C17,C16,C15,C14,C13,C12</t>
+  </si>
+  <si>
+    <t>c_0805_led</t>
+  </si>
+  <si>
+    <t>diode-DO214AA</t>
+  </si>
+  <si>
+    <t>f_1812</t>
+  </si>
+  <si>
+    <t>miniSMDC200F/16</t>
+  </si>
+  <si>
+    <t>r_0805_ldr</t>
+  </si>
+  <si>
+    <t>LDR</t>
+  </si>
+  <si>
+    <t>LED182,LED181,
+LED180,LED179,LED178,LED177,LED176,LED175,LED174,LED173,LED172,LED171,
+LED170,LED169,LED168,LED167,LED166,LED165,LED164,LED163,LED162,LED161,
+LED160,LED159,LED158,LED157,LED156,LED155,LED154,LED153,LED152,LED151,
+LED150,LED149,LED148,LED147,LED146,LED145,LED144,LED143,LED142,LED141,
+LED140,LED139,LED138,LED137,LED136,LED135,LED134,LED133,LED132,LED131,
+LED130,LED129,LED128,LED127,LED126,LED125,LED124,LED123,LED122,LED121,
+LED120,LED119,LED118,LED117,LED116,LED115,LED114,LED113,LED112,LED111,
+LED110,LED109,LED108,LED107,LED106,LED105,LED104,LED103,LED102,LED101,
+LED100,LED99,LED98,LED97,LED96,LED95,LED94,LED93,LED92,LED91,
+LED90,LED89,LED88,LED87,LED86,LED85,LED84,LED83,LED82,LED81,
+LED80,LED79,LED78,LED77,LED76,LED75,LED74,LED73,LED72,LED71,
+LED70,LED69,LED68,LED67,LED66,LED65,LED64,LED63,LED62,LED61,
+LED60,LED59,LED58,LED57,LED56,LED55,LED54,LED53,LED52,LED51,
+LED50,LED49,LED48,LED47,LED46,LED45,LED44,LED43,LED42,LED41,
+LED40,LED39,LED38,LED37,LED36,LED35,LED34,LED33,LED32,LED31,
+LED30,LED29,LED28,LED27,LED26,LED25,LED24,LED23,LED22,LED21,
+LED20,LED19,LED18,LED17,LED16,LED15,LED14,LED13,LED12,LED11,
+LED10,LED9,LED8,LED7,LED6,LED5,LED4,LED3,LED2,LED1</t>
+  </si>
+  <si>
+    <t>RGB_WS2811B</t>
+  </si>
+  <si>
+    <t>ISP</t>
+  </si>
+  <si>
+    <t>Header_FTDI</t>
+  </si>
+  <si>
+    <t>PWR_IN</t>
+  </si>
+  <si>
+    <t>r_0805</t>
+  </si>
+  <si>
+    <t>R2,R3,R5,R6,R7,R10,R11,R14,R15</t>
+  </si>
+  <si>
+    <t>SW_SMD</t>
+  </si>
+  <si>
+    <t>TQFP32</t>
+  </si>
+  <si>
+    <t>DS3231</t>
+  </si>
+  <si>
+    <t>Xtal_SMD3</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>5VEN_L</t>
+  </si>
+  <si>
+    <t>STACK-L</t>
+  </si>
+  <si>
+    <t>I2C_L</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>5VEN_R</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>STACK-R</t>
+  </si>
+  <si>
+    <t>I2C_R</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>Header_4x1</t>
+  </si>
+  <si>
+    <t>Marquee</t>
+  </si>
+  <si>
+    <t>R12,R13</t>
+  </si>
+  <si>
+    <t>0R</t>
+  </si>
+  <si>
+    <t>A3,A6,A7,B2,D7</t>
+  </si>
+  <si>
+    <t>BreakOutPad</t>
+  </si>
+  <si>
+    <t>CONN_1</t>
+  </si>
+  <si>
+    <t>G***</t>
+  </si>
+  <si>
+    <t>logo_CG</t>
+  </si>
+  <si>
+    <t>LOGO</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Logo_silk_OSHW_6x6mm</t>
+  </si>
+  <si>
+    <t>OSHW</t>
+  </si>
+  <si>
+    <t>L2,L3</t>
+  </si>
+  <si>
+    <t>Logo-WL3</t>
+  </si>
+  <si>
+    <t>Wyolum</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>Chronogram</t>
+  </si>
+  <si>
+    <t>S1,S2,S3,S4</t>
+  </si>
+  <si>
+    <t>Screw_3mm</t>
+  </si>
+  <si>
+    <t>S10,S11,S12,S13</t>
+  </si>
+  <si>
+    <t>Slot_tiewrap</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t> Value</t>
+  </si>
+  <si>
+    <t> Footprint</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>C4_Pretty:BreakOutPad</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C4_Pretty:CR2032_SMD2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C4_Pretty:c_0805</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C4_Pretty:c_2917</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C4_Pretty:c_0805_led</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>C36</t>
+  </si>
+  <si>
+    <t>C37</t>
+  </si>
+  <si>
+    <t>C38</t>
+  </si>
+  <si>
+    <t>C39</t>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>C42</t>
+  </si>
+  <si>
+    <t>C43</t>
+  </si>
+  <si>
+    <t>C44</t>
+  </si>
+  <si>
+    <t>C45</t>
+  </si>
+  <si>
+    <t>C46</t>
+  </si>
+  <si>
+    <t>C47</t>
+  </si>
+  <si>
+    <t>C48</t>
+  </si>
+  <si>
+    <t>C49</t>
+  </si>
+  <si>
+    <t>C50</t>
+  </si>
+  <si>
+    <t>C51</t>
+  </si>
+  <si>
+    <t>C52</t>
+  </si>
+  <si>
+    <t>C53</t>
+  </si>
+  <si>
+    <t>C54</t>
+  </si>
+  <si>
+    <t>C55</t>
+  </si>
+  <si>
+    <t>C56</t>
+  </si>
+  <si>
+    <t>C57</t>
+  </si>
+  <si>
+    <t>C58</t>
+  </si>
+  <si>
+    <t>C59</t>
+  </si>
+  <si>
+    <t>C60</t>
+  </si>
+  <si>
+    <t>C61</t>
+  </si>
+  <si>
+    <t>C62</t>
+  </si>
+  <si>
+    <t>C63</t>
+  </si>
+  <si>
+    <t>C64</t>
+  </si>
+  <si>
+    <t>C65</t>
+  </si>
+  <si>
+    <t>C66</t>
+  </si>
+  <si>
+    <t>C67</t>
+  </si>
+  <si>
+    <t>C68</t>
+  </si>
+  <si>
+    <t>C69</t>
+  </si>
+  <si>
+    <t>C70</t>
+  </si>
+  <si>
+    <t>C71</t>
+  </si>
+  <si>
+    <t>C72</t>
+  </si>
+  <si>
+    <t>C73</t>
+  </si>
+  <si>
+    <t>C74</t>
+  </si>
+  <si>
+    <t>C75</t>
+  </si>
+  <si>
+    <t>C76</t>
+  </si>
+  <si>
+    <t>C77</t>
+  </si>
+  <si>
+    <t>C78</t>
+  </si>
+  <si>
+    <t>C79</t>
+  </si>
+  <si>
+    <t>C80</t>
+  </si>
+  <si>
+    <t>C81</t>
+  </si>
+  <si>
+    <t>C82</t>
+  </si>
+  <si>
+    <t>C83</t>
+  </si>
+  <si>
+    <t>C84</t>
+  </si>
+  <si>
+    <t>C85</t>
+  </si>
+  <si>
+    <t>C86</t>
+  </si>
+  <si>
+    <t>C87</t>
+  </si>
+  <si>
+    <t>C88</t>
+  </si>
+  <si>
+    <t>C89</t>
+  </si>
+  <si>
+    <t>C90</t>
+  </si>
+  <si>
+    <t>C91</t>
+  </si>
+  <si>
+    <t>C92</t>
+  </si>
+  <si>
+    <t>C93</t>
+  </si>
+  <si>
+    <t>C94</t>
+  </si>
+  <si>
+    <t>C95</t>
+  </si>
+  <si>
+    <t>C96</t>
+  </si>
+  <si>
+    <t>C97</t>
+  </si>
+  <si>
+    <t>C98</t>
+  </si>
+  <si>
+    <t>C99</t>
+  </si>
+  <si>
+    <t>C100</t>
+  </si>
+  <si>
+    <t>C101</t>
+  </si>
+  <si>
+    <t>C102</t>
+  </si>
+  <si>
+    <t>C103</t>
+  </si>
+  <si>
+    <t>C104</t>
+  </si>
+  <si>
+    <t>C105</t>
+  </si>
+  <si>
+    <t>C106</t>
+  </si>
+  <si>
+    <t>C107</t>
+  </si>
+  <si>
+    <t>C108</t>
+  </si>
+  <si>
+    <t>C109</t>
+  </si>
+  <si>
+    <t>C110</t>
+  </si>
+  <si>
+    <t>C111</t>
+  </si>
+  <si>
+    <t>C112</t>
+  </si>
+  <si>
+    <t>C113</t>
+  </si>
+  <si>
+    <t>C114</t>
+  </si>
+  <si>
+    <t>C115</t>
+  </si>
+  <si>
+    <t>C116</t>
+  </si>
+  <si>
+    <t>C117</t>
+  </si>
+  <si>
+    <t>C118</t>
+  </si>
+  <si>
+    <t>C119</t>
+  </si>
+  <si>
+    <t>C120</t>
+  </si>
+  <si>
+    <t>C121</t>
+  </si>
+  <si>
+    <t>C122</t>
+  </si>
+  <si>
+    <t>C123</t>
+  </si>
+  <si>
+    <t>C124</t>
+  </si>
+  <si>
+    <t>C125</t>
+  </si>
+  <si>
+    <t>C126</t>
+  </si>
+  <si>
+    <t>C127</t>
+  </si>
+  <si>
+    <t>C128</t>
+  </si>
+  <si>
+    <t>C129</t>
+  </si>
+  <si>
+    <t>C130</t>
+  </si>
+  <si>
+    <t>C131</t>
+  </si>
+  <si>
+    <t>C132</t>
+  </si>
+  <si>
+    <t>C133</t>
+  </si>
+  <si>
+    <t>C134</t>
+  </si>
+  <si>
+    <t>C135</t>
+  </si>
+  <si>
+    <t>C136</t>
+  </si>
+  <si>
+    <t>C137</t>
+  </si>
+  <si>
+    <t>C138</t>
+  </si>
+  <si>
+    <t>C139</t>
+  </si>
+  <si>
+    <t>C140</t>
+  </si>
+  <si>
+    <t>C141</t>
+  </si>
+  <si>
+    <t>C142</t>
+  </si>
+  <si>
+    <t>C143</t>
+  </si>
+  <si>
+    <t>C144</t>
+  </si>
+  <si>
+    <t>C145</t>
+  </si>
+  <si>
+    <t>C146</t>
+  </si>
+  <si>
+    <t>C147</t>
+  </si>
+  <si>
+    <t>C148</t>
+  </si>
+  <si>
+    <t>C149</t>
+  </si>
+  <si>
+    <t>C150</t>
+  </si>
+  <si>
+    <t>C151</t>
+  </si>
+  <si>
+    <t>C152</t>
+  </si>
+  <si>
+    <t>C153</t>
+  </si>
+  <si>
+    <t>C154</t>
+  </si>
+  <si>
+    <t>C155</t>
+  </si>
+  <si>
+    <t>C156</t>
+  </si>
+  <si>
+    <t>C157</t>
+  </si>
+  <si>
+    <t>C158</t>
+  </si>
+  <si>
+    <t>C159</t>
+  </si>
+  <si>
+    <t>C160</t>
+  </si>
+  <si>
+    <t>C161</t>
+  </si>
+  <si>
+    <t>C162</t>
+  </si>
+  <si>
+    <t>C163</t>
+  </si>
+  <si>
+    <t>C164</t>
+  </si>
+  <si>
+    <t>C165</t>
+  </si>
+  <si>
+    <t>C166</t>
+  </si>
+  <si>
+    <t>C167</t>
+  </si>
+  <si>
+    <t>C168</t>
+  </si>
+  <si>
+    <t>C169</t>
+  </si>
+  <si>
+    <t>C170</t>
+  </si>
+  <si>
+    <t>C171</t>
+  </si>
+  <si>
+    <t>C172</t>
+  </si>
+  <si>
+    <t>C173</t>
+  </si>
+  <si>
+    <t>C174</t>
+  </si>
+  <si>
+    <t>C175</t>
+  </si>
+  <si>
+    <t>C176</t>
+  </si>
+  <si>
+    <t>C177</t>
+  </si>
+  <si>
+    <t>C178</t>
+  </si>
+  <si>
+    <t>C179</t>
+  </si>
+  <si>
+    <t>C180</t>
+  </si>
+  <si>
+    <t>C181</t>
+  </si>
+  <si>
+    <t>C182</t>
+  </si>
+  <si>
+    <t>C183</t>
+  </si>
+  <si>
+    <t>C184</t>
+  </si>
+  <si>
+    <t>C185</t>
+  </si>
+  <si>
+    <t>C186</t>
+  </si>
+  <si>
+    <t>C187</t>
+  </si>
+  <si>
+    <t>C188</t>
+  </si>
+  <si>
+    <t>C189</t>
+  </si>
+  <si>
+    <t>C190</t>
+  </si>
+  <si>
+    <t>C191</t>
+  </si>
+  <si>
+    <t>C192</t>
+  </si>
+  <si>
+    <t>C193</t>
+  </si>
+  <si>
+    <t>C194</t>
+  </si>
+  <si>
+    <t>C195</t>
+  </si>
+  <si>
+    <t>C196</t>
+  </si>
+  <si>
+    <t>C197</t>
+  </si>
+  <si>
+    <t>C198</t>
+  </si>
+  <si>
+    <t>C199</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>C4_Pretty:Logo_silk_OSHW_6x6mm</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>C4_Pretty:Logo-WL3</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>LDR1</t>
+  </si>
+  <si>
+    <t>C4_Pretty:r_0805_ldr</t>
+  </si>
+  <si>
+    <t>LDR2</t>
+  </si>
+  <si>
+    <t>LDR3</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>C4_Pretty:RGB_WS2811B</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>LED3</t>
+  </si>
+  <si>
+    <t>LED4</t>
+  </si>
+  <si>
+    <t>LED5</t>
+  </si>
+  <si>
+    <t>LED6</t>
+  </si>
+  <si>
+    <t>LED7</t>
+  </si>
+  <si>
+    <t>LED8</t>
+  </si>
+  <si>
+    <t>LED9</t>
+  </si>
+  <si>
+    <t>LED10</t>
+  </si>
+  <si>
+    <t>LED11</t>
+  </si>
+  <si>
+    <t>LED12</t>
+  </si>
+  <si>
+    <t>LED13</t>
+  </si>
+  <si>
+    <t>LED14</t>
+  </si>
+  <si>
+    <t>LED15</t>
+  </si>
+  <si>
+    <t>LED16</t>
+  </si>
+  <si>
+    <t>LED17</t>
+  </si>
+  <si>
+    <t>LED18</t>
+  </si>
+  <si>
+    <t>LED19</t>
+  </si>
+  <si>
+    <t>LED20</t>
+  </si>
+  <si>
+    <t>LED21</t>
+  </si>
+  <si>
+    <t>LED22</t>
+  </si>
+  <si>
+    <t>LED23</t>
+  </si>
+  <si>
+    <t>LED24</t>
+  </si>
+  <si>
+    <t>LED25</t>
+  </si>
+  <si>
+    <t>LED26</t>
+  </si>
+  <si>
+    <t>LED27</t>
+  </si>
+  <si>
+    <t>LED28</t>
+  </si>
+  <si>
+    <t>LED29</t>
+  </si>
+  <si>
+    <t>LED30</t>
+  </si>
+  <si>
+    <t>LED31</t>
+  </si>
+  <si>
+    <t>LED32</t>
+  </si>
+  <si>
+    <t>LED33</t>
+  </si>
+  <si>
+    <t>LED34</t>
+  </si>
+  <si>
+    <t>LED35</t>
+  </si>
+  <si>
+    <t>LED36</t>
+  </si>
+  <si>
+    <t>LED37</t>
+  </si>
+  <si>
+    <t>LED38</t>
+  </si>
+  <si>
+    <t>LED39</t>
+  </si>
+  <si>
+    <t>LED40</t>
+  </si>
+  <si>
+    <t>LED41</t>
+  </si>
+  <si>
+    <t>LED42</t>
+  </si>
+  <si>
+    <t>LED43</t>
+  </si>
+  <si>
+    <t>LED44</t>
+  </si>
+  <si>
+    <t>LED45</t>
+  </si>
+  <si>
+    <t>LED46</t>
+  </si>
+  <si>
+    <t>LED47</t>
+  </si>
+  <si>
+    <t>LED48</t>
+  </si>
+  <si>
+    <t>LED49</t>
+  </si>
+  <si>
+    <t>LED50</t>
+  </si>
+  <si>
+    <t>LED51</t>
+  </si>
+  <si>
+    <t>LED52</t>
+  </si>
+  <si>
+    <t>LED53</t>
+  </si>
+  <si>
+    <t>LED54</t>
+  </si>
+  <si>
+    <t>LED55</t>
+  </si>
+  <si>
+    <t>LED56</t>
+  </si>
+  <si>
+    <t>LED57</t>
+  </si>
+  <si>
+    <t>LED58</t>
+  </si>
+  <si>
+    <t>LED59</t>
+  </si>
+  <si>
+    <t>LED60</t>
+  </si>
+  <si>
+    <t>LED61</t>
+  </si>
+  <si>
+    <t>LED62</t>
+  </si>
+  <si>
+    <t>LED63</t>
+  </si>
+  <si>
+    <t>LED64</t>
+  </si>
+  <si>
+    <t>LED65</t>
+  </si>
+  <si>
+    <t>LED66</t>
+  </si>
+  <si>
+    <t>LED67</t>
+  </si>
+  <si>
+    <t>LED68</t>
+  </si>
+  <si>
+    <t>LED69</t>
+  </si>
+  <si>
+    <t>LED70</t>
+  </si>
+  <si>
+    <t>LED71</t>
+  </si>
+  <si>
+    <t>LED72</t>
+  </si>
+  <si>
+    <t>LED73</t>
+  </si>
+  <si>
+    <t>LED74</t>
+  </si>
+  <si>
+    <t>LED75</t>
+  </si>
+  <si>
+    <t>LED76</t>
+  </si>
+  <si>
+    <t>LED77</t>
+  </si>
+  <si>
+    <t>LED78</t>
+  </si>
+  <si>
+    <t>LED79</t>
+  </si>
+  <si>
+    <t>LED80</t>
+  </si>
+  <si>
+    <t>LED81</t>
+  </si>
+  <si>
+    <t>LED82</t>
+  </si>
+  <si>
+    <t>LED83</t>
+  </si>
+  <si>
+    <t>LED84</t>
+  </si>
+  <si>
+    <t>LED85</t>
+  </si>
+  <si>
+    <t>LED86</t>
+  </si>
+  <si>
+    <t>LED87</t>
+  </si>
+  <si>
+    <t>LED88</t>
+  </si>
+  <si>
+    <t>LED89</t>
+  </si>
+  <si>
+    <t>LED90</t>
+  </si>
+  <si>
+    <t>LED91</t>
+  </si>
+  <si>
+    <t>LED92</t>
+  </si>
+  <si>
+    <t>LED93</t>
+  </si>
+  <si>
+    <t>LED94</t>
+  </si>
+  <si>
+    <t>LED95</t>
+  </si>
+  <si>
+    <t>LED96</t>
+  </si>
+  <si>
+    <t>LED97</t>
+  </si>
+  <si>
+    <t>LED98</t>
+  </si>
+  <si>
+    <t>LED99</t>
+  </si>
+  <si>
+    <t>LED100</t>
+  </si>
+  <si>
+    <t>LED101</t>
+  </si>
+  <si>
+    <t>LED102</t>
+  </si>
+  <si>
+    <t>LED103</t>
+  </si>
+  <si>
+    <t>LED104</t>
+  </si>
+  <si>
+    <t>LED105</t>
+  </si>
+  <si>
+    <t>LED106</t>
+  </si>
+  <si>
+    <t>LED107</t>
+  </si>
+  <si>
+    <t>LED108</t>
+  </si>
+  <si>
+    <t>LED109</t>
+  </si>
+  <si>
+    <t>LED110</t>
+  </si>
+  <si>
+    <t>LED111</t>
+  </si>
+  <si>
+    <t>LED112</t>
+  </si>
+  <si>
+    <t>LED113</t>
+  </si>
+  <si>
+    <t>LED114</t>
+  </si>
+  <si>
+    <t>LED115</t>
+  </si>
+  <si>
+    <t>LED116</t>
+  </si>
+  <si>
+    <t>LED117</t>
+  </si>
+  <si>
+    <t>LED118</t>
+  </si>
+  <si>
+    <t>LED119</t>
+  </si>
+  <si>
+    <t>LED120</t>
+  </si>
+  <si>
+    <t>LED121</t>
+  </si>
+  <si>
+    <t>LED122</t>
+  </si>
+  <si>
+    <t>LED123</t>
+  </si>
+  <si>
+    <t>LED124</t>
+  </si>
+  <si>
+    <t>LED125</t>
+  </si>
+  <si>
+    <t>LED126</t>
+  </si>
+  <si>
+    <t>LED127</t>
+  </si>
+  <si>
+    <t>LED128</t>
+  </si>
+  <si>
+    <t>LED129</t>
+  </si>
+  <si>
+    <t>LED130</t>
+  </si>
+  <si>
+    <t>LED131</t>
+  </si>
+  <si>
+    <t>LED132</t>
+  </si>
+  <si>
+    <t>LED133</t>
+  </si>
+  <si>
+    <t>LED134</t>
+  </si>
+  <si>
+    <t>LED135</t>
+  </si>
+  <si>
+    <t>LED136</t>
+  </si>
+  <si>
+    <t>LED137</t>
+  </si>
+  <si>
+    <t>LED138</t>
+  </si>
+  <si>
+    <t>LED139</t>
+  </si>
+  <si>
+    <t>LED140</t>
+  </si>
+  <si>
+    <t>LED141</t>
+  </si>
+  <si>
+    <t>LED142</t>
+  </si>
+  <si>
+    <t>LED143</t>
+  </si>
+  <si>
+    <t>LED144</t>
+  </si>
+  <si>
+    <t>LED145</t>
+  </si>
+  <si>
+    <t>LED146</t>
+  </si>
+  <si>
+    <t>LED147</t>
+  </si>
+  <si>
+    <t>LED148</t>
+  </si>
+  <si>
+    <t>LED149</t>
+  </si>
+  <si>
+    <t>LED150</t>
+  </si>
+  <si>
+    <t>LED151</t>
+  </si>
+  <si>
+    <t>LED152</t>
+  </si>
+  <si>
+    <t>LED153</t>
+  </si>
+  <si>
+    <t>LED154</t>
+  </si>
+  <si>
+    <t>LED155</t>
+  </si>
+  <si>
+    <t>LED156</t>
+  </si>
+  <si>
+    <t>LED157</t>
+  </si>
+  <si>
+    <t>LED158</t>
+  </si>
+  <si>
+    <t>LED159</t>
+  </si>
+  <si>
+    <t>LED160</t>
+  </si>
+  <si>
+    <t>LED161</t>
+  </si>
+  <si>
+    <t>LED162</t>
+  </si>
+  <si>
+    <t>LED163</t>
+  </si>
+  <si>
+    <t>LED164</t>
+  </si>
+  <si>
+    <t>LED165</t>
+  </si>
+  <si>
+    <t>LED166</t>
+  </si>
+  <si>
+    <t>LED167</t>
+  </si>
+  <si>
+    <t>LED168</t>
+  </si>
+  <si>
+    <t>LED169</t>
+  </si>
+  <si>
+    <t>LED170</t>
+  </si>
+  <si>
+    <t>LED171</t>
+  </si>
+  <si>
+    <t>LED172</t>
+  </si>
+  <si>
+    <t>LED173</t>
+  </si>
+  <si>
+    <t>LED174</t>
+  </si>
+  <si>
+    <t>LED175</t>
+  </si>
+  <si>
+    <t>LED176</t>
+  </si>
+  <si>
+    <t>LED177</t>
+  </si>
+  <si>
+    <t>LED178</t>
+  </si>
+  <si>
+    <t>LED179</t>
+  </si>
+  <si>
+    <t>LED180</t>
+  </si>
+  <si>
+    <t>LED181</t>
+  </si>
+  <si>
+    <t>LED182</t>
+  </si>
+  <si>
+    <t>C4_Pretty:ISP</t>
+  </si>
+  <si>
+    <t>C4_Pretty:Header_FTDI</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>C4_Pretty:Header_3x1_PWR</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>C4_Pretty:r_0805</t>
+  </si>
+  <si>
+    <t>C4_Pretty:STACK-L</t>
+  </si>
+  <si>
+    <t>C4_Pretty:STACK-R</t>
+  </si>
+  <si>
+    <t>C4_Pretty:Header_4x1</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>C4_Pretty:Screw_3mm</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>C4_Pretty:Slot_tiewrap</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>C4_Pretty:SW_SMD</t>
+  </si>
+  <si>
+    <t>C4_Pretty:TQFP32</t>
+  </si>
+  <si>
+    <t>C4_Pretty:DS3231</t>
+  </si>
+  <si>
+    <t>C4_Pretty:Xtal_SMD3</t>
   </si>
 </sst>
 </file>
@@ -3223,7 +4771,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3451,6 +4999,14 @@
     <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="364" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="359">
@@ -3944,8 +5500,8 @@
   </sheetPr>
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.8"/>
@@ -4397,7 +5953,7 @@
       </c>
       <c r="O19" s="36"/>
     </row>
-    <row r="20" s="37" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="37" customFormat="true" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="30" t="s">
         <v>67</v>
       </c>
@@ -4754,7 +6310,7 @@
       </c>
       <c r="O28" s="36"/>
     </row>
-    <row r="29" s="37" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="37" customFormat="true" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="30" t="s">
         <v>137</v>
       </c>
@@ -4795,7 +6351,7 @@
       </c>
       <c r="O29" s="36"/>
     </row>
-    <row r="30" s="37" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="37" customFormat="true" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="30" t="s">
         <v>146</v>
       </c>
@@ -4836,7 +6392,7 @@
       </c>
       <c r="O30" s="36"/>
     </row>
-    <row r="31" s="37" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="37" customFormat="true" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="s">
         <v>149</v>
       </c>
@@ -5614,9 +7170,9 @@
     <hyperlink ref="N26" r:id="rId12" display="http://www.digikey.com/product-detail/en/RMCF0805JT470R/RMCF0805JT470RCT-ND/1942551"/>
     <hyperlink ref="N27" r:id="rId13" display="http://www.digikey.com/product-detail/en/RMCF0805FT10K0/RMCF0805FT10K0CT-ND/1942435"/>
     <hyperlink ref="N28" r:id="rId14" display="http://www.digikey.com/product-detail/en/RMCF0805JT4K70/RMCF0805JT4K70CT-ND/1942570"/>
-    <hyperlink ref="N29" r:id="rId15" display="http://www.digikey.com/product-detail/en/FSM4JSMA/450-1129-ND/525821"/>
-    <hyperlink ref="N30" r:id="rId16" display="http://www.digikey.com/product-detail/en/FSM4JSMA/450-1129-ND/525821"/>
-    <hyperlink ref="N31" r:id="rId17" display="http://www.digikey.com/product-detail/en/FSM4JSMA/450-1129-ND/525821"/>
+    <hyperlink ref="N29" r:id="rId15" display="http://www.digikey.com/product-detail/en/FSM6JSMA/450-1133-ND/525822"/>
+    <hyperlink ref="N30" r:id="rId16" display="http://www.digikey.com/product-detail/en/FSM6JSMA/450-1133-ND/525822"/>
+    <hyperlink ref="N31" r:id="rId17" display="http://www.digikey.com/product-detail/en/FSM6JSMA/450-1133-ND/525822"/>
     <hyperlink ref="N32" r:id="rId18" display="http://www.digikey.com/product-detail/en/ATMEGA328P-AU/ATMEGA328P-AU-ND/1832260"/>
     <hyperlink ref="N33" r:id="rId19" display="http://www.digikey.com/product-detail/en/DS3231S%23/DS3231S%23-ND/1197574"/>
     <hyperlink ref="N34" r:id="rId20" display="http://www.digikey.com/product-detail/en/TSX-3225%2016.0000MF09Z-AC3/SER3628CT-ND/1802879"/>
@@ -5633,4 +7189,5939 @@
   </headerFooter>
   <drawing r:id="rId24"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="3.0969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="73.7755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="22.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="57" width="8.37755102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="16.7142857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="14.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="5" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="57" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="57" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="57" t="n">
+        <v>182</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="57" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="57" t="n">
+        <v>182</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="57" t="n">
+        <v>9</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D30" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D31" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="3.0969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="73.7755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="22.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="57" width="8.37755102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="16.7142857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="14.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="5" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="57" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="57" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="57" t="n">
+        <v>182</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="57" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="57" t="n">
+        <v>182</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" s="57" t="n">
+        <v>9</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" s="57" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" s="57" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C433"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A344" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A344" activeCellId="0" sqref="A344"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.76530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C244" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C254" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C256" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C260" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C261" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C262" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C263" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C264" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C265" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C266" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C269" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C270" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C272" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C273" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C274" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C275" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C276" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C278" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C279" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C280" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C281" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C282" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C283" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C284" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C285" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C286" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C287" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C288" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C289" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C290" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C291" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C292" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C294" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C295" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C296" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C297" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C298" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C299" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C300" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C301" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C302" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C304" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C305" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C306" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C307" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C308" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C309" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C310" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C311" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C312" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C313" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C314" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C315" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C316" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C317" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C318" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C319" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C320" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C321" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C322" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C323" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C324" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C325" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C326" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C327" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C328" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C329" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C330" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C331" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C332" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C333" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C334" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C335" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C336" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C337" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C338" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C339" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C340" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C341" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C342" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C343" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C344" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C345" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C346" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C347" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C348" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C349" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C350" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C351" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C352" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C353" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C354" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C355" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C356" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C357" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C358" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C359" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C360" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="B361" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C361" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="B362" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C362" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B363" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C363" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="B364" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C364" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C365" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C366" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C367" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C368" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="B369" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C369" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="B370" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C370" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="B371" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C371" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C372" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="B373" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C373" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C374" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="B375" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C375" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="B376" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C376" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="B377" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C377" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="B378" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C378" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="B379" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C379" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="B380" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C380" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="B381" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C381" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="B382" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C382" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="B383" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C383" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="B384" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C384" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C385" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="B386" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C386" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C387" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C388" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="B389" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C389" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="B390" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C390" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="B391" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C391" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="B392" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C392" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="B393" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C393" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="B394" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C394" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="B395" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C395" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B396" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C396" s="0" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B397" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C397" s="0" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="B398" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C398" s="0" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="B399" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C399" s="0" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B400" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C400" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B401" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C401" s="0" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B402" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C402" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B403" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C403" s="0" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B404" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C404" s="0" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="B405" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C405" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="B406" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C406" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="B407" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C407" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="B408" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C408" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="B409" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C409" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="B410" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C410" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="B411" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C411" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="B412" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C412" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="B413" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C413" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="B414" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C414" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="B415" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C415" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="B416" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C416" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="B417" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C417" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="B418" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C418" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="B419" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C419" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="B420" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C420" s="0" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="B421" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C421" s="0" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="B422" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C422" s="0" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="B423" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C423" s="0" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="B424" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C424" s="0" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="B425" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C425" s="0" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="B426" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C426" s="0" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="B427" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C427" s="0" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B428" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C428" s="0" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B429" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C429" s="0" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B430" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C430" s="0" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B431" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C431" s="0" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B432" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C432" s="0" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B433" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C433" s="0" t="s">
+        <v>702</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>